--- a/biology/Zoologie/Figitidae/Figitidae.xlsx
+++ b/biology/Zoologie/Figitidae/Figitidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Figitidae sont une famille d'hyménoptères qui comporte 30 genres et 270 espèces décrites.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De petite taille (1,5 à 4 mm), les femelles ont des antennes à 13 segments, les mâles de 15. 
 L'abdomen a les tergites 2 et 3 fusionnés, sans sutures visibles et constituent ainsi le plus grand segment de l'abdomen.
@@ -559,7 +573,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce sont des ectoparasitoïdes de larves de Diptères schyzophores. Ils sont abondants dans les décharges, auprès des cadavres. Leur biologie est peu connue.
 Des espèces présentent un intérêt pour la lutte biologique car elles parasitent des Agromizydae, Chloropidae, Anthomyiidae et des Drosophilidae.
@@ -592,9 +608,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (30 janvier 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (30 janvier 2021) :
 sous-famille Anacharitinae
 genre Acanthaegilips Ashmead, 1897
 genre Aegilips Haliday, 1835
